--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_002.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="153">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -164,6 +170,9 @@
     <t>cognome</t>
   </si>
   <si>
+    <t>{evento.trascrizioneNascita.genitoreMutazioneCognome,!=,1}</t>
+  </si>
+  <si>
     <t>Nome</t>
   </si>
   <si>
@@ -296,6 +305,9 @@
     <t>evento.padre</t>
   </si>
   <si>
+    <t>{evento.trascrizioneNascita.genitoreMutazioneCognome,!=,2}</t>
+  </si>
+  <si>
     <t>Figlio</t>
   </si>
   <si>
@@ -314,6 +326,9 @@
     <t>idProvinciaEnte</t>
   </si>
   <si>
+    <t>{evento.trascrizioneNascita.provvedimentoCambioCognome,=,1}</t>
+  </si>
+  <si>
     <t>Provincia ente - Descrizione</t>
   </si>
   <si>
@@ -417,6 +432,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -511,7 +529,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G143"/>
+  <dimension ref="A1:H143"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -523,6 +541,7 @@
     <col min="4" max="4" width="52.27734375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="34.08984375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="59.11328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -544,185 +563,215 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -744,2645 +793,3044 @@
       <c r="F11" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G11" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="E24" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="E91" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="F114" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>134</v>
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>134</v>
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>134</v>
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>134</v>
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>134</v>
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>134</v>
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>134</v>
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>134</v>
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>134</v>
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_002.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="155">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t>sceltaCognome</t>
+  </si>
+  <si>
+    <t>Nuovo cognome</t>
+  </si>
+  <si>
+    <t>nuovoCognome</t>
   </si>
   <si>
     <t>Madre</t>
@@ -529,7 +535,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H143"/>
+  <dimension ref="A1:H144"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1052,53 +1058,53 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F23" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>55</v>
@@ -1107,7 +1113,7 @@
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>56</v>
@@ -1116,12 +1122,12 @@
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>57</v>
@@ -1130,7 +1136,7 @@
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>58</v>
@@ -1139,12 +1145,12 @@
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>59</v>
@@ -1153,7 +1159,7 @@
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>60</v>
@@ -1162,12 +1168,12 @@
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>61</v>
@@ -1176,7 +1182,7 @@
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>62</v>
@@ -1185,21 +1191,21 @@
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>64</v>
@@ -1208,12 +1214,12 @@
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>65</v>
@@ -1222,7 +1228,7 @@
         <v>15</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>66</v>
@@ -1231,12 +1237,12 @@
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>67</v>
@@ -1245,7 +1251,7 @@
         <v>15</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>68</v>
@@ -1254,12 +1260,12 @@
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>69</v>
@@ -1268,7 +1274,7 @@
         <v>15</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>70</v>
@@ -1277,21 +1283,21 @@
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>72</v>
@@ -1300,12 +1306,12 @@
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>73</v>
@@ -1314,7 +1320,7 @@
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>74</v>
@@ -1323,12 +1329,12 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>75</v>
@@ -1337,7 +1343,7 @@
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>76</v>
@@ -1346,12 +1352,12 @@
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>77</v>
@@ -1360,7 +1366,7 @@
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>78</v>
@@ -1369,21 +1375,21 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>80</v>
@@ -1392,12 +1398,12 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>81</v>
@@ -1406,7 +1412,7 @@
         <v>15</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>82</v>
@@ -1415,12 +1421,12 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>83</v>
@@ -1429,7 +1435,7 @@
         <v>15</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>84</v>
@@ -1438,12 +1444,12 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>85</v>
@@ -1452,7 +1458,7 @@
         <v>15</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>86</v>
@@ -1461,12 +1467,12 @@
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>87</v>
@@ -1475,7 +1481,7 @@
         <v>15</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>88</v>
@@ -1484,21 +1490,21 @@
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>90</v>
@@ -1507,12 +1513,12 @@
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>91</v>
@@ -1521,7 +1527,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>92</v>
@@ -1530,12 +1536,12 @@
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>93</v>
@@ -1544,7 +1550,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>94</v>
@@ -1553,58 +1559,58 @@
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C45" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F45" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>55</v>
@@ -1613,7 +1619,7 @@
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>56</v>
@@ -1622,12 +1628,12 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>57</v>
@@ -1636,7 +1642,7 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>58</v>
@@ -1645,12 +1651,12 @@
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>59</v>
@@ -1659,7 +1665,7 @@
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>60</v>
@@ -1668,12 +1674,12 @@
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>61</v>
@@ -1682,7 +1688,7 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>62</v>
@@ -1691,21 +1697,21 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>64</v>
@@ -1714,12 +1720,12 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>65</v>
@@ -1728,7 +1734,7 @@
         <v>15</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>66</v>
@@ -1737,12 +1743,12 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>67</v>
@@ -1751,7 +1757,7 @@
         <v>15</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>68</v>
@@ -1760,12 +1766,12 @@
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>69</v>
@@ -1774,7 +1780,7 @@
         <v>15</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>70</v>
@@ -1783,21 +1789,21 @@
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>72</v>
@@ -1806,12 +1812,12 @@
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>73</v>
@@ -1820,7 +1826,7 @@
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>74</v>
@@ -1829,12 +1835,12 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>75</v>
@@ -1843,7 +1849,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>76</v>
@@ -1852,12 +1858,12 @@
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>77</v>
@@ -1866,7 +1872,7 @@
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>78</v>
@@ -1875,21 +1881,21 @@
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>80</v>
@@ -1898,12 +1904,12 @@
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>81</v>
@@ -1912,7 +1918,7 @@
         <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>82</v>
@@ -1921,12 +1927,12 @@
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>83</v>
@@ -1935,7 +1941,7 @@
         <v>15</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>84</v>
@@ -1944,12 +1950,12 @@
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>85</v>
@@ -1958,7 +1964,7 @@
         <v>15</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>86</v>
@@ -1967,12 +1973,12 @@
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>87</v>
@@ -1981,7 +1987,7 @@
         <v>15</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>88</v>
@@ -1990,21 +1996,21 @@
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>90</v>
@@ -2013,12 +2019,12 @@
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>91</v>
@@ -2027,7 +2033,7 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>92</v>
@@ -2036,12 +2042,12 @@
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>93</v>
@@ -2050,7 +2056,7 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>94</v>
@@ -2059,50 +2065,50 @@
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D67" s="2" t="s">
+      <c r="E67" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>25</v>
@@ -2110,7 +2116,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>55</v>
@@ -2119,7 +2125,7 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>56</v>
@@ -2133,7 +2139,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>57</v>
@@ -2142,7 +2148,7 @@
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>58</v>
@@ -2156,7 +2162,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>59</v>
@@ -2165,7 +2171,7 @@
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>60</v>
@@ -2179,7 +2185,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>61</v>
@@ -2188,7 +2194,7 @@
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>62</v>
@@ -2202,16 +2208,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>64</v>
@@ -2225,7 +2231,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>65</v>
@@ -2234,13 +2240,13 @@
         <v>15</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>25</v>
@@ -2248,7 +2254,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>67</v>
@@ -2257,13 +2263,13 @@
         <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>25</v>
@@ -2271,7 +2277,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>69</v>
@@ -2280,13 +2286,13 @@
         <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>25</v>
@@ -2294,22 +2300,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>25</v>
@@ -2317,7 +2323,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>73</v>
@@ -2326,7 +2332,7 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>74</v>
@@ -2340,7 +2346,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>75</v>
@@ -2349,7 +2355,7 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>76</v>
@@ -2363,7 +2369,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>77</v>
@@ -2372,7 +2378,7 @@
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>78</v>
@@ -2386,16 +2392,16 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>80</v>
@@ -2409,7 +2415,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>81</v>
@@ -2418,13 +2424,13 @@
         <v>15</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>82</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>25</v>
@@ -2432,7 +2438,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>83</v>
@@ -2441,13 +2447,13 @@
         <v>15</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>25</v>
@@ -2455,7 +2461,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>85</v>
@@ -2464,13 +2470,13 @@
         <v>15</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>86</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>25</v>
@@ -2478,7 +2484,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>87</v>
@@ -2487,7 +2493,7 @@
         <v>15</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>88</v>
@@ -2501,22 +2507,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>25</v>
@@ -2524,7 +2530,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>91</v>
@@ -2533,7 +2539,7 @@
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>92</v>
@@ -2547,7 +2553,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>93</v>
@@ -2556,7 +2562,7 @@
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>94</v>
@@ -2573,50 +2579,50 @@
         <v>100</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="E89" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E90" s="2" t="s">
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>107</v>
@@ -2625,7 +2631,7 @@
         <v>15</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>108</v>
@@ -2634,12 +2640,12 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>109</v>
@@ -2648,53 +2654,53 @@
         <v>15</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>110</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="C93" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>25</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>116</v>
@@ -2708,7 +2714,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>117</v>
@@ -2717,7 +2723,7 @@
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>118</v>
@@ -2731,7 +2737,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>119</v>
@@ -2740,7 +2746,7 @@
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>120</v>
@@ -2754,7 +2760,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>121</v>
@@ -2763,7 +2769,7 @@
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>122</v>
@@ -2777,7 +2783,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>123</v>
@@ -2786,7 +2792,7 @@
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>124</v>
@@ -2800,7 +2806,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>125</v>
@@ -2809,10 +2815,10 @@
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2823,19 +2829,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>127</v>
+        <v>24</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2846,7 +2852,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>128</v>
@@ -2855,10 +2861,10 @@
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2869,19 +2875,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2892,16 +2898,16 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>132</v>
@@ -2915,7 +2921,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>133</v>
@@ -2924,7 +2930,7 @@
         <v>15</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>134</v>
@@ -2938,19 +2944,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="C105" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2961,16 +2967,16 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>116</v>
@@ -2984,7 +2990,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>117</v>
@@ -2993,7 +2999,7 @@
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>118</v>
@@ -3007,7 +3013,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>119</v>
@@ -3016,7 +3022,7 @@
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>120</v>
@@ -3030,7 +3036,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>121</v>
@@ -3039,7 +3045,7 @@
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>122</v>
@@ -3053,7 +3059,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>123</v>
@@ -3062,7 +3068,7 @@
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>124</v>
@@ -3076,7 +3082,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>125</v>
@@ -3085,10 +3091,10 @@
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3099,19 +3105,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>127</v>
+        <v>24</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3122,7 +3128,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>128</v>
@@ -3131,10 +3137,10 @@
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3145,19 +3151,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3168,16 +3174,16 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>132</v>
@@ -3191,7 +3197,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>133</v>
@@ -3200,7 +3206,7 @@
         <v>15</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>134</v>
@@ -3217,7 +3223,7 @@
         <v>137</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>15</v>
@@ -3226,41 +3232,41 @@
         <v>138</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>140</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>55</v>
@@ -3269,7 +3275,7 @@
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>56</v>
@@ -3278,12 +3284,12 @@
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>57</v>
@@ -3292,7 +3298,7 @@
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>58</v>
@@ -3301,12 +3307,12 @@
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>59</v>
@@ -3315,7 +3321,7 @@
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>60</v>
@@ -3324,12 +3330,12 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>61</v>
@@ -3338,7 +3344,7 @@
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>62</v>
@@ -3347,21 +3353,21 @@
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>64</v>
@@ -3370,12 +3376,12 @@
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>65</v>
@@ -3384,21 +3390,21 @@
         <v>15</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>67</v>
@@ -3407,21 +3413,21 @@
         <v>15</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>69</v>
@@ -3430,44 +3436,44 @@
         <v>15</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>73</v>
@@ -3476,7 +3482,7 @@
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>74</v>
@@ -3485,12 +3491,12 @@
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>75</v>
@@ -3499,7 +3505,7 @@
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>76</v>
@@ -3508,12 +3514,12 @@
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>77</v>
@@ -3522,7 +3528,7 @@
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>78</v>
@@ -3531,21 +3537,21 @@
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>80</v>
@@ -3554,12 +3560,12 @@
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>81</v>
@@ -3568,21 +3574,21 @@
         <v>15</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>82</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>83</v>
@@ -3591,21 +3597,21 @@
         <v>15</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>85</v>
@@ -3614,21 +3620,21 @@
         <v>15</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>86</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>87</v>
@@ -3637,44 +3643,44 @@
         <v>15</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>88</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>91</v>
@@ -3683,7 +3689,7 @@
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>92</v>
@@ -3692,12 +3698,12 @@
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>93</v>
@@ -3706,7 +3712,7 @@
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>94</v>
@@ -3715,50 +3721,50 @@
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>146</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>25</v>
@@ -3766,22 +3772,22 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>148</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>25</v>
@@ -3789,7 +3795,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>149</v>
@@ -3798,7 +3804,7 @@
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>150</v>
@@ -3812,7 +3818,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>151</v>
@@ -3830,6 +3836,29 @@
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
         <v>25</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_002.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="156">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,49 +32,52 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Copia integrale dell'atto di nascita del dichiarante</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Atto cambiamento del cognome del genitore</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>114-quater.1</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Copia integrale dell'atto di nascita del dichiarante</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Atto cambiamento del cognome del genitore</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>114-quater.1</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -800,3066 +803,3066 @@
         <v>5</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_002.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_002.xlsx
@@ -179,7 +179,7 @@
     <t>cognome</t>
   </si>
   <si>
-    <t>{evento.trascrizioneNascita.genitoreMutazioneCognome,!=,1}</t>
+    <t>evento.trascrizioneNascita.genitoreMutazioneCognome,!=,1</t>
   </si>
   <si>
     <t>Nome</t>
@@ -314,7 +314,7 @@
     <t>evento.padre</t>
   </si>
   <si>
-    <t>{evento.trascrizioneNascita.genitoreMutazioneCognome,!=,2}</t>
+    <t>evento.trascrizioneNascita.genitoreMutazioneCognome,!=,2</t>
   </si>
   <si>
     <t>Figlio</t>
@@ -335,7 +335,7 @@
     <t>idProvinciaEnte</t>
   </si>
   <si>
-    <t>{evento.trascrizioneNascita.provvedimentoCambioCognome,=,1}</t>
+    <t>evento.trascrizioneNascita.provvedimentoCambioCognome,=,1</t>
   </si>
   <si>
     <t>Provincia ente - Descrizione</t>
@@ -443,7 +443,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -550,7 +550,7 @@
     <col min="4" max="4" width="52.27734375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="34.08984375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="59.11328125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="57.73046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_002.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="158">
   <si>
     <t>Sezione</t>
   </si>
@@ -236,6 +236,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -410,22 +416,22 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
   </si>
   <si>
     <t>Atto Nascita Intestatario</t>
@@ -538,7 +544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H144"/>
+  <dimension ref="A1:H148"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1320,7 +1326,7 @@
         <v>74</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>53</v>
@@ -1412,7 +1418,7 @@
         <v>82</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>53</v>
@@ -1527,7 +1533,7 @@
         <v>92</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>53</v>
@@ -1590,574 +1596,574 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C46" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D68" s="2" t="s">
+      <c r="E68" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2" t="s">
+      <c r="E69" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>26</v>
@@ -2165,19 +2171,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2188,19 +2194,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2211,19 +2217,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2234,19 +2240,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2257,22 +2263,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>26</v>
@@ -2280,19 +2286,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2303,19 +2309,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>13</v>
@@ -2326,19 +2332,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2349,22 +2355,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>26</v>
@@ -2372,22 +2378,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>26</v>
@@ -2395,19 +2401,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2418,19 +2424,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2441,22 +2447,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>26</v>
@@ -2464,19 +2470,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2487,22 +2493,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>26</v>
@@ -2510,19 +2516,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>13</v>
@@ -2533,19 +2539,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2556,22 +2562,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>26</v>
@@ -2579,22 +2585,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>26</v>
@@ -2605,22 +2611,22 @@
         <v>103</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E90" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>107</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91">
@@ -2628,22 +2634,22 @@
         <v>103</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>107</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92">
@@ -2651,131 +2657,131 @@
         <v>103</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>107</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2786,19 +2792,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2809,19 +2815,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2832,19 +2838,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2855,19 +2861,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2878,19 +2884,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2901,19 +2907,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2924,19 +2930,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2947,19 +2953,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>137</v>
+        <v>28</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2970,19 +2976,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2993,19 +2999,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E107" s="2" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3016,19 +3022,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3039,19 +3045,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3062,19 +3068,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3085,19 +3091,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3108,19 +3114,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3131,19 +3137,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3154,19 +3160,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3177,19 +3183,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3200,19 +3206,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3223,19 +3229,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>137</v>
+        <v>28</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3249,7 +3255,7 @@
         <v>140</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>52</v>
+        <v>134</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>15</v>
@@ -3258,13 +3264,13 @@
         <v>141</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>143</v>
+        <v>26</v>
       </c>
     </row>
     <row r="119">
@@ -3272,22 +3278,22 @@
         <v>140</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>56</v>
+        <v>136</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>57</v>
+        <v>137</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>143</v>
+        <v>26</v>
       </c>
     </row>
     <row r="120">
@@ -3295,7 +3301,7 @@
         <v>140</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
@@ -3304,564 +3310,656 @@
         <v>141</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>143</v>
+        <v>26</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F140" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="G140" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>26</v>
+        <v>145</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>24</v>
+        <v>143</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>151</v>
+        <v>97</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>26</v>
+        <v>145</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>152</v>
+        <v>98</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>35</v>
+        <v>143</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>26</v>
+        <v>145</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D144" s="2" t="s">
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E144" s="2" t="s">
+      <c r="E147" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F144" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G144" s="2" t="s">
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_002.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="159">
   <si>
     <t>Sezione</t>
   </si>
@@ -449,7 +449,10 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -556,7 +559,7 @@
     <col min="4" max="4" width="52.27734375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="34.08984375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="57.73046875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3830,7 +3833,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
@@ -3850,19 +3853,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3873,19 +3876,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>16</v>
@@ -3896,10 +3899,10 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
@@ -3908,7 +3911,7 @@
         <v>24</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3919,10 +3922,10 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
@@ -3931,7 +3934,7 @@
         <v>35</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3942,10 +3945,10 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
@@ -3954,7 +3957,7 @@
         <v>35</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_002.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="158">
   <si>
     <t>Sezione</t>
   </si>
@@ -450,9 +450,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -3833,7 +3830,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>146</v>
+        <v>98</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
@@ -3853,19 +3850,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D144" s="2" t="s">
+      <c r="E144" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3876,19 +3873,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B145" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>16</v>
@@ -3899,10 +3896,10 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
@@ -3911,7 +3908,7 @@
         <v>24</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3922,10 +3919,10 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
@@ -3934,7 +3931,7 @@
         <v>35</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3945,10 +3942,10 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
@@ -3957,7 +3954,7 @@
         <v>35</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_002.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="159">
   <si>
     <t>Sezione</t>
   </si>
@@ -450,6 +450,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -3830,7 +3833,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
@@ -3850,19 +3853,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3873,19 +3876,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>16</v>
@@ -3896,10 +3899,10 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
@@ -3908,7 +3911,7 @@
         <v>24</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3919,10 +3922,10 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
@@ -3931,7 +3934,7 @@
         <v>35</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3942,10 +3945,10 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
@@ -3954,7 +3957,7 @@
         <v>35</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_002.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="169">
   <si>
     <t>Sezione</t>
   </si>
@@ -312,6 +312,36 @@
   </si>
   <si>
     <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Padre</t>
@@ -547,7 +577,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H148"/>
+  <dimension ref="A1:H162"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1622,778 +1652,778 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C47" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>13</v>
@@ -2404,19 +2434,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2427,19 +2457,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2450,19 +2480,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2473,19 +2503,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2496,19 +2526,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2519,22 +2549,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>26</v>
@@ -2542,22 +2572,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>26</v>
@@ -2565,22 +2595,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>26</v>
@@ -2588,19 +2618,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>13</v>
@@ -2611,22 +2641,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>26</v>
@@ -2634,19 +2664,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2657,19 +2687,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2680,111 +2710,111 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E96" s="2" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2795,22 +2825,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>26</v>
@@ -2818,22 +2848,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>26</v>
@@ -2841,19 +2871,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2864,19 +2894,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2887,19 +2917,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2910,19 +2940,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2933,22 +2963,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>26</v>
@@ -2956,19 +2986,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2979,22 +3009,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>26</v>
@@ -3002,111 +3032,111 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="C107" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D107" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E107" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E109" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3117,19 +3147,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3140,19 +3170,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3163,19 +3193,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E114" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3186,19 +3216,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>25</v>
+        <v>137</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3209,19 +3239,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3232,19 +3262,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3255,19 +3285,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3278,19 +3308,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>137</v>
+        <v>28</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3301,19 +3331,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3324,645 +3354,967 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>54</v>
+        <v>147</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>145</v>
+        <v>26</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>56</v>
+        <v>148</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>57</v>
+        <v>149</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>145</v>
+        <v>26</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>145</v>
+        <v>26</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>61</v>
+        <v>131</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>145</v>
+        <v>26</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>145</v>
+        <v>26</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>64</v>
+        <v>134</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>145</v>
+        <v>26</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>66</v>
+        <v>136</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>67</v>
+        <v>137</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>145</v>
+        <v>26</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>68</v>
+        <v>138</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>69</v>
+        <v>139</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>145</v>
+        <v>26</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>145</v>
+        <v>26</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F130" s="2" t="s">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>145</v>
+        <v>26</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>145</v>
+        <v>26</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>145</v>
+        <v>26</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>145</v>
+        <v>26</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>145</v>
+        <v>26</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>146</v>
+        <v>70</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>148</v>
+        <v>72</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>26</v>
+        <v>155</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>151</v>
+        <v>74</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>26</v>
+        <v>155</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E146" s="2" t="s">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>26</v>
+        <v>155</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B147" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D148" s="2" t="s">
+      <c r="B158" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E148" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G148" s="2" t="s">
+      <c r="E161" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_002.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="171">
   <si>
     <t>Sezione</t>
   </si>
@@ -188,6 +188,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -242,13 +248,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -577,7 +583,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H162"/>
+  <dimension ref="A1:H166"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1175,7 +1181,7 @@
         <v>58</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>53</v>
@@ -1267,7 +1273,7 @@
         <v>66</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>53</v>
@@ -1382,7 +1388,7 @@
         <v>76</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>53</v>
@@ -1474,7 +1480,7 @@
         <v>84</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>53</v>
@@ -1589,7 +1595,7 @@
         <v>94</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>53</v>
@@ -1658,7 +1664,7 @@
         <v>100</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>53</v>
@@ -1767,712 +1773,712 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C52" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F52" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>112</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D80" s="2" t="s">
+      <c r="E80" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
+      <c r="E81" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>26</v>
@@ -2480,19 +2486,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2503,19 +2509,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2526,19 +2532,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2549,19 +2555,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2572,22 +2578,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>26</v>
@@ -2595,19 +2601,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2618,22 +2624,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>26</v>
@@ -2641,19 +2647,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>13</v>
@@ -2664,19 +2670,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2687,22 +2693,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>26</v>
@@ -2710,22 +2716,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>26</v>
@@ -2733,19 +2739,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2756,19 +2762,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2779,22 +2785,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>26</v>
@@ -2802,19 +2808,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2825,22 +2831,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>26</v>
@@ -2848,19 +2854,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>13</v>
@@ -2871,19 +2877,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2894,22 +2900,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>26</v>
@@ -2917,22 +2923,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>26</v>
@@ -2940,19 +2946,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2963,22 +2969,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>26</v>
@@ -2986,19 +2992,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3009,22 +3015,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>26</v>
@@ -3035,22 +3041,22 @@
         <v>115</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="E107" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>119</v>
+        <v>26</v>
       </c>
     </row>
     <row r="108">
@@ -3058,22 +3064,22 @@
         <v>115</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>119</v>
+        <v>26</v>
       </c>
     </row>
     <row r="109">
@@ -3081,131 +3087,131 @@
         <v>115</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>119</v>
+        <v>26</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>26</v>
+        <v>121</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>26</v>
+        <v>121</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>26</v>
+        <v>121</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3216,19 +3222,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3239,19 +3245,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3262,19 +3268,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>25</v>
+        <v>137</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3285,19 +3291,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3308,19 +3314,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>28</v>
+        <v>141</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3331,19 +3337,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>145</v>
+        <v>25</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3354,19 +3360,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3377,19 +3383,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>149</v>
+        <v>28</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3400,19 +3406,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3423,19 +3429,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="E124" s="2" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3446,19 +3452,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3469,19 +3475,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3492,19 +3498,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3515,19 +3521,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3538,19 +3544,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>25</v>
+        <v>137</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3561,19 +3567,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3584,19 +3590,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>28</v>
+        <v>141</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3607,19 +3613,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>145</v>
+        <v>25</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3630,19 +3636,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3653,19 +3659,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>149</v>
+        <v>28</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3679,7 +3685,7 @@
         <v>152</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>15</v>
@@ -3688,13 +3694,13 @@
         <v>153</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>54</v>
+        <v>147</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>155</v>
+        <v>26</v>
       </c>
     </row>
     <row r="136">
@@ -3702,22 +3708,22 @@
         <v>152</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>56</v>
+        <v>148</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>153</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>57</v>
+        <v>149</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>155</v>
+        <v>26</v>
       </c>
     </row>
     <row r="137">
@@ -3725,7 +3731,7 @@
         <v>152</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>58</v>
+        <v>150</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
@@ -3734,587 +3740,679 @@
         <v>153</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>59</v>
+        <v>151</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>155</v>
+        <v>26</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F157" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C157" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G157" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G158" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G158" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G159" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B162" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C162" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D162" s="2" t="s">
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E162" s="2" t="s">
+      <c r="E165" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F162" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G162" s="2" t="s">
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_002.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="173">
   <si>
     <t>Sezione</t>
   </si>
@@ -258,6 +258,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -583,7 +589,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H166"/>
+  <dimension ref="A1:H170"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1457,7 +1463,7 @@
         <v>82</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>53</v>
@@ -1480,7 +1486,7 @@
         <v>84</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>53</v>
@@ -1618,7 +1624,7 @@
         <v>96</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>53</v>
@@ -1687,7 +1693,7 @@
         <v>102</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>53</v>
@@ -1796,735 +1802,735 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C53" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F53" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D82" s="2" t="s">
+      <c r="E82" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="2" t="s">
+      <c r="E83" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>26</v>
@@ -2532,19 +2538,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2555,19 +2561,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2578,19 +2584,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2601,19 +2607,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2624,19 +2630,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2647,22 +2653,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>26</v>
@@ -2670,19 +2676,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2693,19 +2699,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>13</v>
@@ -2716,22 +2722,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>26</v>
@@ -2739,22 +2745,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>26</v>
@@ -2762,22 +2768,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>26</v>
@@ -2785,19 +2791,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2808,19 +2814,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2831,22 +2837,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>26</v>
@@ -2854,22 +2860,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>26</v>
@@ -2877,22 +2883,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>26</v>
@@ -2900,22 +2906,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>26</v>
@@ -2923,19 +2929,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>13</v>
@@ -2946,19 +2952,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2969,22 +2975,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>26</v>
@@ -2992,22 +2998,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>26</v>
@@ -3015,19 +3021,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3038,22 +3044,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>26</v>
@@ -3061,19 +3067,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3084,22 +3090,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>26</v>
@@ -3110,22 +3116,22 @@
         <v>117</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="E110" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>121</v>
+        <v>26</v>
       </c>
     </row>
     <row r="111">
@@ -3133,22 +3139,22 @@
         <v>117</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>121</v>
+        <v>26</v>
       </c>
     </row>
     <row r="112">
@@ -3156,131 +3162,131 @@
         <v>117</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>121</v>
+        <v>26</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>26</v>
+        <v>123</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>26</v>
+        <v>123</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>26</v>
+        <v>123</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3291,19 +3297,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3314,19 +3320,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3337,19 +3343,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3360,19 +3366,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3383,19 +3389,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3406,19 +3412,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>147</v>
+        <v>25</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3429,19 +3435,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3452,19 +3458,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>151</v>
+        <v>28</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3475,19 +3481,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3498,19 +3504,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="E127" s="2" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3521,19 +3527,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3544,19 +3550,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3567,19 +3573,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3590,19 +3596,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3613,19 +3619,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3636,19 +3642,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3659,19 +3665,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3682,19 +3688,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>147</v>
+        <v>25</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3705,19 +3711,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3728,19 +3734,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>151</v>
+        <v>28</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3754,7 +3760,7 @@
         <v>154</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>52</v>
+        <v>148</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>15</v>
@@ -3763,13 +3769,13 @@
         <v>155</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>54</v>
+        <v>149</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>157</v>
+        <v>26</v>
       </c>
     </row>
     <row r="139">
@@ -3777,22 +3783,22 @@
         <v>154</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>56</v>
+        <v>150</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>155</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>57</v>
+        <v>151</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>157</v>
+        <v>26</v>
       </c>
     </row>
     <row r="140">
@@ -3800,619 +3806,711 @@
         <v>154</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>58</v>
+        <v>152</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>155</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>157</v>
+        <v>26</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F161" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C161" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G161" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G162" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G162" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G163" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G164" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B166" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C166" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D166" s="2" t="s">
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E166" s="2" t="s">
+      <c r="E169" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="F166" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G166" s="2" t="s">
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_002.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="175">
   <si>
     <t>Sezione</t>
   </si>
@@ -258,6 +258,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -589,7 +595,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H170"/>
+  <dimension ref="A1:H174"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1647,7 +1653,7 @@
         <v>98</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>53</v>
@@ -1716,7 +1722,7 @@
         <v>104</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>53</v>
@@ -1825,758 +1831,758 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C54" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F54" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>116</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D84" s="2" t="s">
+      <c r="E84" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="2" t="s">
+      <c r="E85" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>26</v>
@@ -2584,19 +2590,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2607,19 +2613,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2630,19 +2636,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2653,19 +2659,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2676,19 +2682,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2699,22 +2705,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>26</v>
@@ -2722,19 +2728,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2745,19 +2751,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>13</v>
@@ -2768,22 +2774,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>26</v>
@@ -2791,22 +2797,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>26</v>
@@ -2814,22 +2820,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>26</v>
@@ -2837,22 +2843,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>26</v>
@@ -2860,19 +2866,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2883,19 +2889,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>13</v>
@@ -2906,22 +2912,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>26</v>
@@ -2929,22 +2935,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>26</v>
@@ -2952,22 +2958,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>26</v>
@@ -2975,22 +2981,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>26</v>
@@ -2998,19 +3004,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>13</v>
@@ -3021,19 +3027,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3044,22 +3050,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>26</v>
@@ -3067,22 +3073,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>26</v>
@@ -3090,19 +3096,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3113,22 +3119,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>26</v>
@@ -3136,19 +3142,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3159,22 +3165,22 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>26</v>
@@ -3185,22 +3191,22 @@
         <v>119</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="E113" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>123</v>
+        <v>26</v>
       </c>
     </row>
     <row r="114">
@@ -3208,22 +3214,22 @@
         <v>119</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>123</v>
+        <v>26</v>
       </c>
     </row>
     <row r="115">
@@ -3231,131 +3237,131 @@
         <v>119</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>123</v>
+        <v>26</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>26</v>
+        <v>125</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>26</v>
+        <v>125</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>26</v>
+        <v>125</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3366,19 +3372,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3389,19 +3395,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3412,19 +3418,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>25</v>
+        <v>141</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3435,19 +3441,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3458,19 +3464,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>28</v>
+        <v>145</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3481,19 +3487,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3504,19 +3510,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3527,19 +3533,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>153</v>
+        <v>28</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3550,19 +3556,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3573,19 +3579,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="E130" s="2" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3596,19 +3602,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3619,19 +3625,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3642,19 +3648,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3665,19 +3671,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3688,19 +3694,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>25</v>
+        <v>141</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3711,19 +3717,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3734,19 +3740,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>28</v>
+        <v>145</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3757,19 +3763,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3780,19 +3786,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3803,19 +3809,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>153</v>
+        <v>28</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3829,7 +3835,7 @@
         <v>156</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>15</v>
@@ -3838,13 +3844,13 @@
         <v>157</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>54</v>
+        <v>151</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>159</v>
+        <v>26</v>
       </c>
     </row>
     <row r="142">
@@ -3852,22 +3858,22 @@
         <v>156</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>157</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>57</v>
+        <v>153</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>159</v>
+        <v>26</v>
       </c>
     </row>
     <row r="143">
@@ -3875,642 +3881,734 @@
         <v>156</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>58</v>
+        <v>154</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>157</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>159</v>
+        <v>26</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F165" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C165" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G165" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G166" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G166" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G167" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G168" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G169" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B170" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B173" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D170" s="2" t="s">
+      <c r="C173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E170" s="2" t="s">
+      <c r="E173" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="F170" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G170" s="2" t="s">
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_002.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="177">
   <si>
     <t>Sezione</t>
   </si>
@@ -474,6 +474,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -595,7 +601,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H174"/>
+  <dimension ref="A1:H176"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3608,7 +3614,7 @@
         <v>154</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>134</v>
@@ -3625,19 +3631,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="C132" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3648,19 +3654,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3671,19 +3677,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3694,19 +3700,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3717,19 +3723,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3740,19 +3746,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3763,19 +3769,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3786,19 +3792,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>148</v>
+        <v>25</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3809,19 +3815,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>28</v>
+        <v>148</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3832,19 +3838,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>151</v>
+        <v>28</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3855,19 +3861,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3878,19 +3884,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3904,7 +3910,7 @@
         <v>158</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>52</v>
+        <v>154</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>15</v>
@@ -3913,13 +3919,13 @@
         <v>159</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>161</v>
+        <v>26</v>
       </c>
     </row>
     <row r="145">
@@ -3927,7 +3933,7 @@
         <v>158</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>56</v>
+        <v>156</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
@@ -3936,628 +3942,628 @@
         <v>159</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>161</v>
+        <v>26</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G170" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G171" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
@@ -4568,22 +4574,22 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G173" s="2" t="s">
         <v>26</v>
@@ -4591,24 +4597,70 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B174" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B175" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D174" s="2" t="s">
+      <c r="C175" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E174" s="2" t="s">
+      <c r="E175" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F174" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G174" s="2" t="s">
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_002.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_002.xlsx
@@ -4235,7 +4235,7 @@
         <v>78</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>161</v>
@@ -4258,7 +4258,7 @@
         <v>80</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>161</v>
@@ -4267,7 +4267,7 @@
         <v>81</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="G159" s="2" t="s">
         <v>163</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_002.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="181">
   <si>
     <t>Sezione</t>
   </si>
@@ -198,6 +198,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -601,7 +613,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H176"/>
+  <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1245,7 +1257,7 @@
         <v>62</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>53</v>
@@ -1268,7 +1280,7 @@
         <v>64</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>53</v>
@@ -1314,7 +1326,7 @@
         <v>68</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>53</v>
@@ -1337,7 +1349,7 @@
         <v>70</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>53</v>
@@ -1429,7 +1441,7 @@
         <v>78</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>53</v>
@@ -1452,7 +1464,7 @@
         <v>80</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>53</v>
@@ -1475,7 +1487,7 @@
         <v>82</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>53</v>
@@ -1498,7 +1510,7 @@
         <v>84</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>53</v>
@@ -1682,7 +1694,7 @@
         <v>100</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>53</v>
@@ -1705,7 +1717,7 @@
         <v>102</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>53</v>
@@ -1751,7 +1763,7 @@
         <v>106</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>53</v>
@@ -1774,7 +1786,7 @@
         <v>108</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>53</v>
@@ -1860,827 +1872,827 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C55" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F55" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>118</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>118</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>26</v>
@@ -2688,19 +2700,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2711,19 +2723,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2734,19 +2746,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2757,22 +2769,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>26</v>
@@ -2780,22 +2792,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>26</v>
@@ -2803,22 +2815,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>26</v>
@@ -2826,22 +2838,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>26</v>
@@ -2849,19 +2861,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2872,19 +2884,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2895,19 +2907,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>13</v>
@@ -2918,22 +2930,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>26</v>
@@ -2941,22 +2953,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>26</v>
@@ -2964,19 +2976,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>13</v>
@@ -2987,19 +2999,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3010,22 +3022,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>26</v>
@@ -3033,22 +3045,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>26</v>
@@ -3056,19 +3068,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>13</v>
@@ -3079,22 +3091,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>26</v>
@@ -3102,22 +3114,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>26</v>
@@ -3125,19 +3137,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3148,22 +3160,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>26</v>
@@ -3171,19 +3183,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3194,19 +3206,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>13</v>
@@ -3217,22 +3229,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>26</v>
@@ -3240,22 +3252,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>26</v>
@@ -3263,111 +3275,111 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3378,22 +3390,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>26</v>
@@ -3401,111 +3413,111 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>26</v>
+        <v>129</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>26</v>
+        <v>129</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>26</v>
+        <v>129</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>26</v>
+        <v>129</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3516,19 +3528,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3539,19 +3551,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3562,19 +3574,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3585,19 +3597,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3608,19 +3620,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3631,19 +3643,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>157</v>
+        <v>25</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3654,19 +3666,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3677,19 +3689,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>137</v>
+        <v>28</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3700,19 +3712,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="E135" s="2" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3723,19 +3735,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3746,19 +3758,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D137" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3769,19 +3781,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3792,19 +3804,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3815,19 +3827,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3838,19 +3850,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3861,19 +3873,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3884,19 +3896,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3907,19 +3919,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3930,19 +3942,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>157</v>
+        <v>25</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3953,714 +3965,898 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>52</v>
+        <v>151</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>54</v>
+        <v>152</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>163</v>
+        <v>26</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>163</v>
+        <v>26</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>58</v>
+        <v>154</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>163</v>
+        <v>26</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>60</v>
+        <v>156</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>61</v>
+        <v>157</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>163</v>
+        <v>26</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>62</v>
+        <v>158</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>63</v>
+        <v>159</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>163</v>
+        <v>26</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B151" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E151" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>163</v>
+        <v>26</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>164</v>
+        <v>92</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D172" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B172" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D172" s="2" t="s">
+      <c r="E172" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G172" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D173" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B173" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D173" s="2" t="s">
+      <c r="E173" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G173" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G173" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D174" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B174" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E174" s="2" t="s">
-        <v>172</v>
+        <v>99</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>26</v>
+        <v>167</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D175" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B175" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="E175" s="2" t="s">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>26</v>
+        <v>167</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D176" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="E176" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B182" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C176" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D176" s="2" t="s">
+      <c r="C182" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E176" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G176" s="2" t="s">
+      <c r="E183" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
         <v>26</v>
       </c>
     </row>
